--- a/Document/TCs.xlsx
+++ b/Document/TCs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lekim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codewar3\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F86A822-FCA0-4639-A903-6945263C759D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB0574E-7C94-440C-AD72-689DC03FBFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{97A37D6A-6750-40C6-9D86-E65641C20808}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{97A37D6A-6750-40C6-9D86-E65641C20808}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin - Thêm mới công việc- DS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -221,6 +221,9 @@
     <t>1. Admin &gt; Quản lý Công việc &gt; Thêm mới công việc &gt; Thêm mới thành công
 2. Admin click Active 
 3. Nhân viên &gt; Quan sát Danh sách công việc</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC2343-3B95-4C7E-8B17-C4CB12CCA155}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -667,7 +670,9 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -685,7 +690,9 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -703,7 +710,9 @@
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -721,7 +730,9 @@
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
@@ -757,7 +768,9 @@
       <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -773,7 +786,9 @@
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -791,7 +806,9 @@
       <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -809,7 +826,9 @@
       <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
@@ -827,7 +846,9 @@
       <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
@@ -845,7 +866,9 @@
       <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
@@ -863,7 +886,9 @@
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
@@ -1177,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87685CFE-CCDD-4143-97AB-B0174E459CE9}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1259,9 @@
       <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -1252,7 +1279,9 @@
       <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
